--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_7_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_7_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003512932790230572</v>
+        <v>0.02494131087489304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003512932790230572</v>
+        <v>0.02494131087489304</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.3649940601376</v>
+        <v>35.73564824251896</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[18.810900738641443, 61.919087381633766]</t>
+          <t>[5.7387591413057635, 65.73253734373216]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0004705891243184102</v>
+        <v>0.02062296098095051</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004705891243184102</v>
+        <v>0.02062296098095051</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 2.320816194543811]</t>
+          <t>[0.3962369112635775, 2.6604478327697363]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>9.283516661628965e-06</v>
+        <v>0.009267905898218354</v>
       </c>
       <c r="S2" t="n">
-        <v>9.283516661628965e-06</v>
+        <v>0.009267905898218354</v>
       </c>
       <c r="T2" t="n">
-        <v>59.96734245649149</v>
+        <v>69.26790189327103</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.971519737332045, 72.96316517565094]</t>
+          <t>[51.51672799033295, 87.01907579620911]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.898748073856041e-12</v>
+        <v>5.526961111002038e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>4.898748073856041e-12</v>
+        <v>5.526961111002038e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.21017017017033</v>
+        <v>17.72324324324341</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.73153153153167</v>
+        <v>13.50342342342355</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.68880880880899</v>
+        <v>21.94306306306327</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01090983797295819</v>
+        <v>0.007437120315902379</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01090983797295819</v>
+        <v>0.007437120315902379</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>30.75498400079816</v>
+        <v>30.83978241882725</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[8.289776665002712, 53.22019133659361]</t>
+          <t>[7.260076865243107, 54.41948797241139]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.008390314801055343</v>
+        <v>0.0115214477128458</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008390314801055343</v>
+        <v>0.0115214477128458</v>
       </c>
       <c r="P3" t="n">
-        <v>1.591237119836271</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6100790538502698, 2.5723951858222724]</t>
+          <t>[0.8239211964369622, 2.7359215301532744]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.002087494171230109</v>
+        <v>0.0005029849458253466</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002087494171230109</v>
+        <v>0.0005029849458253466</v>
       </c>
       <c r="T3" t="n">
-        <v>50.75834864660082</v>
+        <v>48.12495349220796</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.10905269103165, 64.40764460217]</t>
+          <t>[35.00586205525748, 61.24404492915845]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.923648129675826e-09</v>
+        <v>2.715091040883522e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.923648129675826e-09</v>
+        <v>2.715091040883522e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>17.44400400400416</v>
+        <v>16.78550550550566</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.79619619619632</v>
+        <v>13.22210210210222</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.091811811812</v>
+        <v>20.34890890890911</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003524197544416352</v>
+        <v>0.08152759546969901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003524197544416352</v>
+        <v>0.08152759546969901</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>30.01899926793045</v>
+        <v>22.25525370846898</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[8.134813341357273, 51.903185194503635]</t>
+          <t>[-3.084445347529723, 47.59495276446768]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.008271367710985134</v>
+        <v>0.08368147662315639</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008271367710985134</v>
+        <v>0.08368147662315639</v>
       </c>
       <c r="P4" t="n">
-        <v>2.018921405009657</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 2.8113952275368117]</t>
+          <t>[0.14465791998511612, 3.842869091778505]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.936570310005607e-06</v>
+        <v>0.03519090810357239</v>
       </c>
       <c r="S4" t="n">
-        <v>5.936570310005607e-06</v>
+        <v>0.03519090810357239</v>
       </c>
       <c r="T4" t="n">
-        <v>55.67561415172429</v>
+        <v>53.43144370343198</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.84584472732624, 67.50538357612234]</t>
+          <t>[39.78316746291806, 67.0797199439459]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.702948975752406e-12</v>
+        <v>5.070677211449492e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.702948975752406e-12</v>
+        <v>5.070677211449492e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>15.85393393393408</v>
+        <v>15.98842842842858</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.90762762762775</v>
+        <v>9.096056056056145</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.80024024024041</v>
+        <v>22.88080080080102</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1906644852592339</v>
+        <v>6.553767487260664e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1906644852592339</v>
+        <v>6.553767487260664e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>20.17255509615454</v>
+        <v>58.34457118468789</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-8.288947377562515, 48.63405756987159]</t>
+          <t>[29.57482732890118, 87.1143150404746]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1603306574519856</v>
+        <v>0.0001791132269031159</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1603306574519856</v>
+        <v>0.0001791132269031159</v>
       </c>
       <c r="P5" t="n">
-        <v>1.893131909370426</v>
+        <v>2.094395102393196</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.2264475824825007, 5.012711401223354]</t>
+          <t>[1.616395018964119, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2279698117569826</v>
+        <v>2.242472874058876e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2279698117569826</v>
+        <v>2.242472874058876e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>63.01572497377751</v>
+        <v>59.88743017651739</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.69169617704774, 78.33975377050729]</t>
+          <t>[45.164949412402294, 74.60991094063249]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.342654876168581e-10</v>
+        <v>1.809112859518791e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.342654876168581e-10</v>
+        <v>1.809112859518791e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>16.32160160160175</v>
+        <v>15.61333333333348</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.723443443443488</v>
+        <v>13.83163163163176</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.91975975976001</v>
+        <v>17.39503503503519</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03376939373850851</v>
+        <v>0.001242961827367939</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03376939373850851</v>
+        <v>0.001242961827367939</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>26.09980974046272</v>
+        <v>42.57486924730494</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.877980567736742, 51.32163891318871]</t>
+          <t>[13.537704729081366, 71.61203376552851]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.04284750353206834</v>
+        <v>0.004985956738182473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04284750353206834</v>
+        <v>0.004985956738182473</v>
       </c>
       <c r="P6" t="n">
-        <v>1.855395060678656</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 3.226500563146274]</t>
+          <t>[1.7925003128590413, 3.025237370123505]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.009113923964473525</v>
+        <v>5.306759476297884e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>0.009113923964473525</v>
+        <v>5.306759476297884e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>54.23242134659708</v>
+        <v>61.35617286711216</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.63262719445457, 67.83221549873959]</t>
+          <t>[45.96918963863001, 76.74315609559432]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.099638323789122e-10</v>
+        <v>3.103841628160353e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>3.099638323789122e-10</v>
+        <v>3.103841628160353e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>16.46190190190205</v>
+        <v>14.4411611611613</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.36432432432443</v>
+        <v>12.14370370370382</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.55947947947968</v>
+        <v>16.73861861861878</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003842068409226629</v>
+        <v>0.007098552160837546</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003842068409226629</v>
+        <v>0.007098552160837546</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.66524144932921</v>
+        <v>29.64731988827043</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.497331931738955, 73.83315096691946]</t>
+          <t>[5.664243334594879, 53.63039644194598]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001195268307213837</v>
+        <v>0.01654363855809193</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001195268307213837</v>
+        <v>0.01654363855809193</v>
       </c>
       <c r="P7" t="n">
-        <v>2.710763631025427</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.0566582537014266, 3.3648690083494266]</t>
+          <t>[1.4906055233248852, 3.000079470995659]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.0837331032576e-10</v>
+        <v>3.209398606873748e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0837331032576e-10</v>
+        <v>3.209398606873748e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2628021930044</v>
+        <v>55.70460186593569</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.8135023617985, 76.71210202421031]</t>
+          <t>[43.03897339654726, 68.37023033532411]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.603648490724254e-10</v>
+        <v>2.011457667094874e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.603648490724254e-10</v>
+        <v>2.011457667094874e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>13.28176176176189</v>
+        <v>15.05069069069084</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.84988988988999</v>
+        <v>12.23747747747759</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.71363363363378</v>
+        <v>17.86390390390408</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.331712155794307e-05</v>
+        <v>0.02045177185095304</v>
       </c>
       <c r="I8" t="n">
-        <v>1.331712155794307e-05</v>
+        <v>0.02045177185095304</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.10796723771202</v>
+        <v>32.10217969030521</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.550817926055913, 71.66511654936812]</t>
+          <t>[2.3878199062078096, 61.81653947440262]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.000355532672849268</v>
+        <v>0.03484883191015009</v>
       </c>
       <c r="O8" t="n">
-        <v>0.000355532672849268</v>
+        <v>0.03484883191015009</v>
       </c>
       <c r="P8" t="n">
-        <v>2.345974093671658</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.855395060678657, 2.836553126664658]</t>
+          <t>[1.5031844728888109, 3.666763797883582]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.663114090888484e-12</v>
+        <v>1.711273178606199e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.663114090888484e-12</v>
+        <v>1.711273178606199e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>53.64764155598608</v>
+        <v>53.49451043558659</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.2105098262745, 66.08477328569765]</t>
+          <t>[37.72207022536213, 69.26695064581105]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.514921687042261e-11</v>
+        <v>1.814681804823692e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.514921687042261e-11</v>
+        <v>1.814681804823692e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>14.63799799799813</v>
+        <v>13.78474474474488</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.81409409409421</v>
+        <v>9.752472472472569</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.46190190190205</v>
+        <v>17.81701701701718</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01225590437550839</v>
+        <v>0.006684628140551818</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01225590437550839</v>
+        <v>0.006684628140551818</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>30.87026603330417</v>
+        <v>31.16289802086381</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[4.283931247994538, 57.4566008186138]</t>
+          <t>[6.6580844846862846, 55.66771155704133]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02385570148830474</v>
+        <v>0.0138489105001689</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02385570148830474</v>
+        <v>0.0138489105001689</v>
       </c>
       <c r="P9" t="n">
-        <v>2.673026782333658</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.7170266154755023, 3.629026949191813]</t>
+          <t>[1.8176582119868878, 3.503237453552582]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.096545255707682e-06</v>
+        <v>9.170956150050813e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>1.096545255707682e-06</v>
+        <v>9.170956150050813e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>53.71994273882812</v>
+        <v>56.81782779907053</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[39.510814902024734, 67.92907057563151]</t>
+          <t>[43.471348206435295, 70.16430739170576]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.261286408649198e-09</v>
+        <v>5.107181344499168e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.261286408649198e-09</v>
+        <v>5.107181344499168e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>13.42206206206219</v>
+        <v>13.50342342342355</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.867787787787879</v>
+        <v>10.3620020020021</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.97633633633649</v>
+        <v>16.644844844845</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.827237152868705e-07</v>
+        <v>5.809630066577753e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>7.827237152868705e-07</v>
+        <v>5.809630066577753e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>53.17414983368081</v>
+        <v>46.01313356638251</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.62468043584714, 73.72361923151448]</t>
+          <t>[24.897148242112948, 67.12911889065208]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.531326139645131e-06</v>
+        <v>6.813342193479066e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>4.531326139645131e-06</v>
+        <v>6.813342193479066e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>3.012658420559581</v>
+        <v>2.823974177100736</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.5598162362583503, 3.4655006048608117]</t>
+          <t>[2.320816194543811, 3.32713215965766]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.769962616701378e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>64.0756929180271</v>
+        <v>54.4564148826955</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.802484092397464, 76.34890174365674]</t>
+          <t>[42.75884130350741, 66.1539884618836]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.052491427344648e-13</v>
+        <v>3.756772670726605e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.052491427344648e-13</v>
+        <v>3.756772670726605e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>12.15935935935947</v>
+        <v>12.89389389389401</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.47575575575586</v>
+        <v>11.01841841841852</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.84296296296309</v>
+        <v>14.76936936936951</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05702740952241803</v>
+        <v>0.0001160390398515787</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05702740952241803</v>
+        <v>0.0001160390398515787</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>26.25120527170354</v>
+        <v>43.85269299375152</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.0688248777052394, 54.57123542111232]</t>
+          <t>[20.419033432955914, 67.28635255454714]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0684287818466518</v>
+        <v>0.0004745665361489682</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0684287818466518</v>
+        <v>0.0004745665361489682</v>
       </c>
       <c r="P11" t="n">
-        <v>2.798816277972889</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 4.459237620410738]</t>
+          <t>[2.257921446724195, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001442664452970366</v>
+        <v>1.412381323007139e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001442664452970366</v>
+        <v>1.412381323007139e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>56.91926813506682</v>
+        <v>56.61005132922239</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[41.4432612417865, 72.39527502834713]</t>
+          <t>[43.068799912612135, 70.15130274583265]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.542782651104858e-09</v>
+        <v>8.502398785026344e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.542782651104858e-09</v>
+        <v>8.502398785026344e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>12.57729729729736</v>
+        <v>12.20620620620627</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.583783783783812</v>
+        <v>9.837837837837888</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5708108108109</v>
+        <v>14.57457457457465</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>7.389435727456206e-05</v>
+        <v>0.0006542130953537395</v>
       </c>
       <c r="I12" t="n">
-        <v>7.389435727456206e-05</v>
+        <v>0.0006542130953537395</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.8904305294575</v>
+        <v>41.37367262150629</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.24166810932178, 67.53919294959321]</t>
+          <t>[14.130829722138841, 68.61651552087373]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0002391434603736808</v>
+        <v>0.003735681187384099</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002391434603736808</v>
+        <v>0.003735681187384099</v>
       </c>
       <c r="P12" t="n">
-        <v>3.012658420559581</v>
+        <v>-2.540947811912466</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[2.3837109423634257, 3.6416058987557363]</t>
+          <t>[-3.1824742396725445, -1.899421384152387]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.580735542461298e-12</v>
+        <v>3.717965935123857e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.580735542461298e-12</v>
+        <v>3.717965935123857e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>56.64442221357826</v>
+        <v>54.54652655156411</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.16067449174845, 70.12816993540807]</t>
+          <t>[40.33345498026192, 68.75959812286631]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.422240599908037e-11</v>
+        <v>8.553486807727495e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>7.422240599908037e-11</v>
+        <v>8.553486807727495e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>11.80540540540546</v>
+        <v>9.200200200200248</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.53513513513518</v>
+        <v>6.87737737737741</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.07567567567575</v>
+        <v>11.52302302302309</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22202753421552e-05</v>
+        <v>0.008298050747648222</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22202753421552e-05</v>
+        <v>0.008298050747648222</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.95017707709758</v>
+        <v>31.70871750353636</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[22.055105447470915, 63.84524870672424]</t>
+          <t>[6.775757868743504, 56.64167713832921]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0001504581913576164</v>
+        <v>0.01384514574686446</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001504581913576164</v>
+        <v>0.01384514574686446</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.893158399702312</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.446632180514929, -2.3396846188896956]</t>
+          <t>[-3.924632263944006, -1.8113687372049254]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.010302952408892e-13</v>
+        <v>1.916946034130618e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>1.010302952408892e-13</v>
+        <v>1.916946034130618e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>50.93196530657022</v>
+        <v>55.96457664500911</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[39.032957191408734, 62.830973421731706]</t>
+          <t>[41.89778682846109, 70.03136646155713]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.378053475306842e-11</v>
+        <v>3.299167605774755e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>4.378053475306842e-11</v>
+        <v>3.299167605774755e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>10.44324324324329</v>
+        <v>10.38438438438444</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.445405405405443</v>
+        <v>6.558558558558591</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.44108108108114</v>
+        <v>14.21021021021028</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003934405651111472</v>
+        <v>0.003570674183798528</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003934405651111472</v>
+        <v>0.003570674183798528</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.8926079690254</v>
+        <v>32.71541107857593</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[16.16137607439866, 67.62383986365214]</t>
+          <t>[7.5439467464316365, 57.886875410720215]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.002013459820553454</v>
+        <v>0.01201452210747767</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002013459820553454</v>
+        <v>0.01201452210747767</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.591263610168158</v>
+        <v>-2.390000417145388</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.2202110883643127, -1.962316131972003]</t>
+          <t>[-3.0441057944693894, -1.7358950398213868]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.274464977996104e-10</v>
+        <v>2.997539105820124e-09</v>
       </c>
       <c r="S14" t="n">
-        <v>1.274464977996104e-10</v>
+        <v>2.997539105820124e-09</v>
       </c>
       <c r="T14" t="n">
-        <v>59.70769254607541</v>
+        <v>61.88697057207115</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[45.834905487357226, 73.5804796047936]</t>
+          <t>[48.907270947069385, 74.86667019707292]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.744560217455728e-11</v>
+        <v>1.820099626570482e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>3.744560217455728e-11</v>
+        <v>1.820099626570482e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>9.353513513513558</v>
+        <v>8.653653653653699</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.083243243243277</v>
+        <v>6.285285285285317</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.62378378378384</v>
+        <v>11.02202202202208</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06596049555127215</v>
+        <v>0.006861091570705691</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06596049555127215</v>
+        <v>0.006861091570705691</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>26.93949834626422</v>
+        <v>34.55384396215407</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.5532596146306545, 58.432256307159086]</t>
+          <t>[6.9308922164128575, 62.17679570789528]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.09177273119732088</v>
+        <v>0.0153730177121858</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09177273119732088</v>
+        <v>0.0153730177121858</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.452895164965004</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.056737724697084, 0.1509473947670763]</t>
+          <t>[-2.893158399702312, -1.2578949563923096]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06421041689266693</v>
+        <v>6.31456494093463e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06421041689266693</v>
+        <v>6.31456494093463e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>51.34066567000573</v>
+        <v>51.39164025448812</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[35.37439965409366, 67.30693168591782]</t>
+          <t>[36.90749463346934, 65.8757858755069]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.110291606020724e-08</v>
+        <v>6.186146261910608e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>6.110291606020724e-08</v>
+        <v>6.186146261910608e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>8.854054054054096</v>
+        <v>7.515015015015054</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.5448648648648646</v>
+        <v>4.55455455455458</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.25297297297305</v>
+        <v>10.47547547547553</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1828199666834667</v>
+        <v>4.311620862784693e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1828199666834667</v>
+        <v>4.311620862784693e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>18.72828969093024</v>
+        <v>61.81431482548648</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-7.093661336680107, 44.550240718540586]</t>
+          <t>[37.618297133580015, 86.01033251739294]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1510178378532445</v>
+        <v>5.658520870976957e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1510178378532445</v>
+        <v>5.658520870976957e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.823947686768848</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-4.446658670846814, 0.798763297309117]</t>
+          <t>[-2.0881056276112337, -1.1572633598809245]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1681633833666767</v>
+        <v>9.4479446488549e-09</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1681633833666767</v>
+        <v>9.4479446488549e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7233013145359</v>
+        <v>66.79504051643012</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[25.88663219331871, 53.559970435753094]</t>
+          <t>[51.83391743436272, 81.75616359849752]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.566024317589125e-07</v>
+        <v>1.300026752915073e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>6.566024317589125e-07</v>
+        <v>1.300026752915073e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>6.583783783783812</v>
+        <v>5.875375375375405</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.883243243243259</v>
+        <v>4.190190190190211</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.05081081081088</v>
+        <v>7.560560560560599</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.836924878597436e-06</v>
+        <v>3.558532591707575e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>3.836924878597436e-06</v>
+        <v>3.558532591707575e-06</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>55.87819857322915</v>
+        <v>55.31185631363353</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[30.656344361089552, 81.10005278536875]</t>
+          <t>[31.629776479106553, 78.9939361481605]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.379559189511163e-05</v>
+        <v>2.446541468237307e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>5.379559189511163e-05</v>
+        <v>2.446541468237307e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.132105460753078</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.6226844937460791, -0.6415264277600778]</t>
+          <t>[-1.7610529389492333, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.941050118865363e-05</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>2.941050118865363e-05</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>59.12385008755739</v>
+        <v>63.49440906539138</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[45.481419621848445, 72.76628055326633]</t>
+          <t>[50.12029484601934, 76.86852328476343]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.073097332162433e-11</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>3.073097332162433e-11</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="X17" t="n">
-        <v>4.086486486486503</v>
+        <v>4.554554554554578</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.315675675675685</v>
+        <v>2.732732732732747</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.857297297297322</v>
+        <v>6.376376376376408</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002022353584528847</v>
+        <v>0.001719177507078617</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002022353584528847</v>
+        <v>0.001719177507078617</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>39.06927619507474</v>
+        <v>40.49632967105802</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[12.760701938240075, 65.3778504519094]</t>
+          <t>[11.919686579681525, 69.07297276243452]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.004498307317191363</v>
+        <v>0.006500721056835079</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004498307317191363</v>
+        <v>0.006500721056835079</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.308210754648002</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-2.062947728483387, -0.5534737808126167]</t>
+          <t>[-1.3082107546480017, 0.02515789912784605]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.001089582772289432</v>
+        <v>0.0589003954378764</v>
       </c>
       <c r="S18" t="n">
-        <v>0.001089582772289432</v>
+        <v>0.0589003954378764</v>
       </c>
       <c r="T18" t="n">
-        <v>71.77100782804895</v>
+        <v>59.09531040611416</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[57.30806994733382, 86.23394570876408]</t>
+          <t>[43.88772094988872, 74.3028998623396]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5.284661597215745e-13</v>
+        <v>6.170184363440967e-10</v>
       </c>
       <c r="W18" t="n">
-        <v>5.284661597215745e-13</v>
+        <v>6.170184363440967e-10</v>
       </c>
       <c r="X18" t="n">
-        <v>4.722162162162185</v>
+        <v>2.322822822822832</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.99783783783785</v>
+        <v>-0.09109109109109337</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.44648648648652</v>
+        <v>4.736736736736758</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_7_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_7_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02494131087489304</v>
+        <v>5.409262593403241e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02494131087489304</v>
+        <v>5.409262593403241e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.73564824251896</v>
+        <v>61.54060656397189</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[5.7387591413057635, 65.73253734373216]</t>
+          <t>[42.46631263743619, 80.6149004905076]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.02062296098095051</v>
+        <v>5.671845326737923e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02062296098095051</v>
+        <v>5.671845326737923e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.528342372016657</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 2.6604478327697363]</t>
+          <t>[1.0000264903318863, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.009267905898218354</v>
+        <v>4.151883281622304e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009267905898218354</v>
+        <v>4.151883281622304e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>69.26790189327103</v>
+        <v>58.76007860863092</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.51672799033295, 87.01907579620911]</t>
+          <t>[47.61766883160592, 69.90248838565591]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.526961111002038e-10</v>
+        <v>7.616129948928574e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>5.526961111002038e-10</v>
+        <v>7.616129948928574e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>17.72324324324341</v>
+        <v>18.23771771771786</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.50342342342355</v>
+        <v>16.98474474474488</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.94306306306327</v>
+        <v>19.49069069069085</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007437120315902379</v>
+        <v>0.003679360594704861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007437120315902379</v>
+        <v>0.003679360594704861</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>30.83978241882725</v>
+        <v>39.90285825109451</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.260076865243107, 54.41948797241139]</t>
+          <t>[13.654555284273926, 66.1511612179151]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0115214477128458</v>
+        <v>0.003704525248502621</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0115214477128458</v>
+        <v>0.003704525248502621</v>
       </c>
       <c r="P3" t="n">
-        <v>1.779921363295118</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 2.7359215301532744]</t>
+          <t>[0.7232895999255788, 2.4591846397469634]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0005029849458253466</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005029849458253466</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="T3" t="n">
-        <v>48.12495349220796</v>
+        <v>58.06134449277452</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[35.00586205525748, 61.24404492915845]</t>
+          <t>[42.40566438774384, 73.71702459780519]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.715091040883522e-09</v>
+        <v>2.061086412652458e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.715091040883522e-09</v>
+        <v>2.061086412652458e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>16.78550550550566</v>
+        <v>17.30958958958973</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.22210210210222</v>
+        <v>14.10754754754766</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.34890890890911</v>
+        <v>20.51163163163179</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08152759546969901</v>
+        <v>0.04875647099199143</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08152759546969901</v>
+        <v>0.04875647099199143</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>22.25525370846898</v>
+        <v>29.12088566528324</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.084445347529723, 47.59495276446768]</t>
+          <t>[-0.45205482694616705, 58.693826157512646]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.08368147662315639</v>
+        <v>0.05345448118309237</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08368147662315639</v>
+        <v>0.05345448118309237</v>
       </c>
       <c r="P4" t="n">
-        <v>1.993763505881811</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.14465791998511612, 3.842869091778505]</t>
+          <t>[0.45913165908319353, 3.2516584622741194]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.03519090810357239</v>
+        <v>0.0103446929285238</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03519090810357239</v>
+        <v>0.0103446929285238</v>
       </c>
       <c r="T4" t="n">
-        <v>53.43144370343198</v>
+        <v>60.52463992115906</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.78316746291806, 67.0797199439459]</t>
+          <t>[44.42550791486188, 76.62377192745625]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.070677211449492e-10</v>
+        <v>1.456919251907607e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>5.070677211449492e-10</v>
+        <v>1.456919251907607e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>15.98842842842858</v>
+        <v>16.33505505505519</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.096056056056145</v>
+        <v>11.18394394394404</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.88080080080102</v>
+        <v>21.48616616616633</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.553767487260664e-06</v>
+        <v>3.614250400407748e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>6.553767487260664e-06</v>
+        <v>3.614250400407748e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.34457118468789</v>
+        <v>50.38126898505583</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[29.57482732890118, 87.1143150404746]</t>
+          <t>[28.840391599191577, 71.92214637092007]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001791132269031159</v>
+        <v>2.394264620986242e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001791132269031159</v>
+        <v>2.394264620986242e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.094395102393196</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.616395018964119, 2.5723951858222724]</t>
+          <t>[1.3270791789938867, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.242472874058876e-11</v>
+        <v>1.299194307691209e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>2.242472874058876e-11</v>
+        <v>1.299194307691209e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>59.88743017651739</v>
+        <v>53.34027819716846</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.164949412402294, 74.60991094063249]</t>
+          <t>[41.121283062346976, 65.55927333198994]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.809112859518791e-10</v>
+        <v>2.495514905831442e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.809112859518791e-10</v>
+        <v>2.495514905831442e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>15.61333333333348</v>
+        <v>16.52068068068081</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.83163163163176</v>
+        <v>14.75723723723736</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.39503503503519</v>
+        <v>18.28412412412427</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001242961827367939</v>
+        <v>0.0009887188379764655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001242961827367939</v>
+        <v>0.0009887188379764655</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.57486924730494</v>
+        <v>41.06224840707403</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[13.537704729081366, 71.61203376552851]</t>
+          <t>[12.783811322876659, 69.3406854912714]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.004985956738182473</v>
+        <v>0.005384694039894056</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004985956738182473</v>
+        <v>0.005384694039894056</v>
       </c>
       <c r="P6" t="n">
-        <v>2.408868841491273</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.7925003128590413, 3.025237370123505]</t>
+          <t>[1.528342372016656, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.306759476297884e-10</v>
+        <v>3.595272168865904e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>5.306759476297884e-10</v>
+        <v>3.595272168865904e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>61.35617286711216</v>
+        <v>60.8933572565476</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.96918963863001, 76.74315609559432]</t>
+          <t>[46.41330791375623, 75.37340659933896]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.103841628160353e-10</v>
+        <v>7.208411645365231e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.103841628160353e-10</v>
+        <v>7.208411645365231e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>14.4411611611613</v>
+        <v>15.0820820820822</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.14370370370382</v>
+        <v>12.62254254254264</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.73861861861878</v>
+        <v>17.54162162162176</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007098552160837546</v>
+        <v>0.007283506106346649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007098552160837546</v>
+        <v>0.007283506106346649</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.64731988827043</v>
+        <v>35.8771821381373</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[5.664243334594879, 53.63039644194598]</t>
+          <t>[6.115138688710566, 65.63922558756403]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01654363855809193</v>
+        <v>0.0192471895730979</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01654363855809193</v>
+        <v>0.0192471895730979</v>
       </c>
       <c r="P7" t="n">
-        <v>2.245342497160272</v>
+        <v>2.358553043235581</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.4906055233248852, 3.000079470995659]</t>
+          <t>[1.666710817219811, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.209398606873748e-07</v>
+        <v>1.609229816068591e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>3.209398606873748e-07</v>
+        <v>1.609229816068591e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>55.70460186593569</v>
+        <v>68.27940320295036</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.03897339654726, 68.37023033532411]</t>
+          <t>[52.84534956483198, 83.71345684106875]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.011457667094874e-11</v>
+        <v>1.697042506521029e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.011457667094874e-11</v>
+        <v>1.697042506521029e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>15.05069069069084</v>
+        <v>14.47879879879891</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.23747747747759</v>
+        <v>11.92644644644654</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.86390390390408</v>
+        <v>17.03115115115128</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02045177185095304</v>
+        <v>0.000621308559801137</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02045177185095304</v>
+        <v>0.000621308559801137</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>32.10217969030521</v>
+        <v>36.69187137902323</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[2.3878199062078096, 61.81653947440262]</t>
+          <t>[14.004976029633475, 59.37876672841298]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03484883191015009</v>
+        <v>0.002141787274254181</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03484883191015009</v>
+        <v>0.002141787274254181</v>
       </c>
       <c r="P8" t="n">
-        <v>2.584974135386196</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.5031844728888109, 3.666763797883582]</t>
+          <t>[2.0943951023931957, 3.5032374535525816]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.711273178606199e-05</v>
+        <v>3.418718641512442e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>1.711273178606199e-05</v>
+        <v>3.418718641512442e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>53.49451043558659</v>
+        <v>49.71632590852908</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[37.72207022536213, 69.26695064581105]</t>
+          <t>[37.05580463780629, 62.37684717925187]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.814681804823692e-08</v>
+        <v>4.675480003157872e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.814681804823692e-08</v>
+        <v>4.675480003157872e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>13.78474474474488</v>
+        <v>12.85457457457468</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.752472472472569</v>
+        <v>10.2558158158159</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.81701701701718</v>
+        <v>15.45333333333345</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006684628140551818</v>
+        <v>4.467034996902264e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006684628140551818</v>
+        <v>4.467034996902264e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>31.16289802086381</v>
+        <v>41.60463519035543</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[6.6580844846862846, 55.66771155704133]</t>
+          <t>[19.10902219855126, 64.1002481821596]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0138489105001689</v>
+        <v>0.0005424533563971323</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0138489105001689</v>
+        <v>0.0005424533563971323</v>
       </c>
       <c r="P9" t="n">
-        <v>2.660447832769735</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8176582119868878, 3.503237453552582]</t>
+          <t>[2.0943951023931957, 3.2013426640184264]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>9.170956150050813e-08</v>
+        <v>1.641797808815681e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>9.170956150050813e-08</v>
+        <v>1.641797808815681e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>56.81782779907053</v>
+        <v>52.73744604338017</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.471348206435295, 70.16430739170576]</t>
+          <t>[40.81921242567351, 64.65567966108684]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.107181344499168e-11</v>
+        <v>1.686006889656255e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>5.107181344499168e-11</v>
+        <v>1.686006889656255e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>13.50342342342355</v>
+        <v>13.41145145145156</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.3620020020021</v>
+        <v>11.36956956956967</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.644844844845</v>
+        <v>15.45333333333345</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5.809630066577753e-06</v>
+        <v>0.0399662692970697</v>
       </c>
       <c r="I10" t="n">
-        <v>5.809630066577753e-06</v>
+        <v>0.0399662692970697</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.01313356638251</v>
+        <v>25.9228991277989</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[24.897148242112948, 67.12911889065208]</t>
+          <t>[0.688848051259086, 51.156950204338706]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.813342193479066e-05</v>
+        <v>0.04431054961414138</v>
       </c>
       <c r="O10" t="n">
-        <v>6.813342193479066e-05</v>
+        <v>0.04431054961414138</v>
       </c>
       <c r="P10" t="n">
-        <v>2.823974177100736</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.320816194543811, 3.32713215965766]</t>
+          <t>[-4.352316549117391, -1.5597897459264631]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>0.0001015605249552465</v>
       </c>
       <c r="S10" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>0.0001015605249552465</v>
       </c>
       <c r="T10" t="n">
-        <v>54.4564148826955</v>
+        <v>53.38319920170312</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.75884130350741, 66.1539884618836]</t>
+          <t>[39.143422127900436, 67.6229762755058]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.756772670726605e-12</v>
+        <v>1.566278440279234e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.756772670726605e-12</v>
+        <v>1.566278440279234e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>12.89389389389401</v>
+        <v>10.90550550550559</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.01841841841852</v>
+        <v>5.754394394394438</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.76936936936951</v>
+        <v>16.05661661661674</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001160390398515787</v>
+        <v>0.002130799430878128</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001160390398515787</v>
+        <v>0.002130799430878128</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>43.85269299375152</v>
+        <v>40.17452724987093</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.419033432955914, 67.28635255454714]</t>
+          <t>[11.044306863609904, 69.30474763613195]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004745665361489682</v>
+        <v>0.007954532565447092</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004745665361489682</v>
+        <v>0.007954532565447092</v>
       </c>
       <c r="P11" t="n">
-        <v>2.912026824048196</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.257921446724195, 3.5661322013721977]</t>
+          <t>[1.9182898084982725, 3.4277637561690444]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.412381323007139e-11</v>
+        <v>6.46683373517476e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>1.412381323007139e-11</v>
+        <v>6.46683373517476e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>56.61005132922239</v>
+        <v>60.79530195345944</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.068799912612135, 70.15130274583265]</t>
+          <t>[45.32447946209797, 76.26612444482092]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.502398785026344e-11</v>
+        <v>4.587874524730751e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>8.502398785026344e-11</v>
+        <v>4.587874524730751e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>12.20620620620627</v>
+        <v>13.12328328328336</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.837837837837888</v>
+        <v>10.3797397397398</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.57457457457465</v>
+        <v>15.86682682682692</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006542130953537395</v>
+        <v>1.232179233290331e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0006542130953537395</v>
+        <v>1.232179233290331e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>41.37367262150629</v>
+        <v>44.17857424322634</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[14.130829722138841, 68.61651552087373]</t>
+          <t>[23.79617142788868, 64.56097705856399]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.003735681187384099</v>
+        <v>7.343305090734553e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003735681187384099</v>
+        <v>7.343305090734553e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.540947811912466</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.1824742396725445, -1.899421384152387]</t>
+          <t>[-3.3963163822592355, -2.339684618889696]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.717965935123857e-10</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>3.717965935123857e-10</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>54.54652655156411</v>
+        <v>67.8633668944799</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.33345498026192, 68.75959812286631]</t>
+          <t>[56.04806950171951, 79.67866428724028]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.553486807727495e-10</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>8.553486807727495e-10</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>9.200200200200248</v>
+        <v>10.42546546546553</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.87737737737741</v>
+        <v>8.504984984985036</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.52302302302309</v>
+        <v>12.34594594594602</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008298050747648222</v>
+        <v>3.108266791129743e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008298050747648222</v>
+        <v>3.108266791129743e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>31.70871750353636</v>
+        <v>50.90754602599094</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[6.775757868743504, 56.64167713832921]</t>
+          <t>[25.14660080966985, 76.66849124231203]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01384514574686446</v>
+        <v>0.0002480981178905051</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01384514574686446</v>
+        <v>0.0002480981178905051</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.924632263944006, -1.8113687372049254]</t>
+          <t>[-3.3334216344396195, -2.226474072814388]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.916946034130618e-06</v>
+        <v>3.61488616817951e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>1.916946034130618e-06</v>
+        <v>3.61488616817951e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>55.96457664500911</v>
+        <v>56.91429842879162</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[41.89778682846109, 70.03136646155713]</t>
+          <t>[42.59486393903505, 71.2337329185482]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.299167605774755e-10</v>
+        <v>3.386462221754982e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>3.299167605774755e-10</v>
+        <v>3.386462221754982e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>10.38438438438444</v>
+        <v>10.10538538538544</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.558558558558591</v>
+        <v>8.093453453453501</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.21021021021028</v>
+        <v>12.11731731731738</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.003570674183798528</v>
+        <v>0.004226188955533061</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003570674183798528</v>
+        <v>0.004226188955533061</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>32.71541107857593</v>
+        <v>35.00044026845148</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[7.5439467464316365, 57.886875410720215]</t>
+          <t>[11.817927524766617, 58.18295301213635]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.01201452210747767</v>
+        <v>0.003925039373831263</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01201452210747767</v>
+        <v>0.003925039373831263</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.390000417145388</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.0441057944693894, -1.7358950398213868]</t>
+          <t>[-4.050421759583237, -2.2138951232504636]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.997539105820124e-09</v>
+        <v>1.588663089968634e-08</v>
       </c>
       <c r="S14" t="n">
-        <v>2.997539105820124e-09</v>
+        <v>1.588663089968634e-08</v>
       </c>
       <c r="T14" t="n">
-        <v>61.88697057207115</v>
+        <v>68.90645597471811</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.907270947069385, 74.86667019707292]</t>
+          <t>[54.43164978950422, 83.381262159932]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.820099626570482e-12</v>
+        <v>1.910249736170044e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.820099626570482e-12</v>
+        <v>1.910249736170044e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>8.653653653653699</v>
+        <v>11.38570570570577</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.285285285285317</v>
+        <v>8.047727727727771</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.02202202202208</v>
+        <v>14.72368368368377</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006861091570705691</v>
+        <v>1.551659513332471e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006861091570705691</v>
+        <v>1.551659513332471e-05</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>34.55384396215407</v>
+        <v>54.3750616735825</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[6.9308922164128575, 62.17679570789528]</t>
+          <t>[28.392980597654443, 80.35714274951056]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0153730177121858</v>
+        <v>0.0001186701190056816</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0153730177121858</v>
+        <v>0.0001186701190056816</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.075526678047311</v>
+        <v>-1.874263485024541</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, -1.2578949563923096]</t>
+          <t>[-2.402579366709311, -1.3459476033397717]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.31456494093463e-06</v>
+        <v>6.207906855237866e-09</v>
       </c>
       <c r="S15" t="n">
-        <v>6.31456494093463e-06</v>
+        <v>6.207906855237866e-09</v>
       </c>
       <c r="T15" t="n">
-        <v>51.39164025448812</v>
+        <v>67.60467703641157</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[36.90749463346934, 65.8757858755069]</t>
+          <t>[53.43690260378874, 81.77245146903441]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.186146261910608e-09</v>
+        <v>1.777022973215026e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>6.186146261910608e-09</v>
+        <v>1.777022973215026e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>7.515015015015054</v>
+        <v>6.813133133133174</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.55455455455458</v>
+        <v>4.892652652652684</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.47547547547553</v>
+        <v>8.733613613613665</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.311620862784693e-06</v>
+        <v>0.01273831286374905</v>
       </c>
       <c r="I16" t="n">
-        <v>4.311620862784693e-06</v>
+        <v>0.01273831286374905</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>61.81431482548648</v>
+        <v>34.79373449682527</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[37.618297133580015, 86.01033251739294]</t>
+          <t>[6.5809780741074775, 63.00649091954307]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.658520870976957e-06</v>
+        <v>0.01678454222006343</v>
       </c>
       <c r="O16" t="n">
-        <v>5.658520870976957e-06</v>
+        <v>0.01678454222006343</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.0881056276112337, -1.1572633598809245]</t>
+          <t>[-2.8428426014466197, -0.704421175579693]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>9.4479446488549e-09</v>
+        <v>0.001686058829377224</v>
       </c>
       <c r="S16" t="n">
-        <v>9.4479446488549e-09</v>
+        <v>0.001686058829377224</v>
       </c>
       <c r="T16" t="n">
-        <v>66.79504051643012</v>
+        <v>53.53474051476866</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[51.83391743436272, 81.75616359849752]</t>
+          <t>[37.91613861348509, 69.15334241605223]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.300026752915073e-11</v>
+        <v>1.416427153344557e-08</v>
       </c>
       <c r="W16" t="n">
-        <v>1.300026752915073e-11</v>
+        <v>1.416427153344557e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>5.875375375375405</v>
+        <v>6.447327327327365</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.190190190190211</v>
+        <v>2.560640640640655</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.560560560560599</v>
+        <v>10.33401401401408</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.558532591707575e-06</v>
+        <v>0.1265699996619419</v>
       </c>
       <c r="I17" t="n">
-        <v>3.558532591707575e-06</v>
+        <v>0.1265699996619419</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>55.31185631363353</v>
+        <v>22.8189693896201</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[31.629776479106553, 78.9939361481605]</t>
+          <t>[-3.384102746110649, 49.02204152535086]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.446541468237307e-05</v>
+        <v>0.08624188442583369</v>
       </c>
       <c r="O17" t="n">
-        <v>2.446541468237307e-05</v>
+        <v>0.08624188442583369</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.25789495639231</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, -0.754736973835386]</t>
+          <t>[-3.0944215927250815, -0.025157899127846495]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>0.04651187363159148</v>
       </c>
       <c r="S17" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>0.04651187363159148</v>
       </c>
       <c r="T17" t="n">
-        <v>63.49440906539138</v>
+        <v>71.37404775979586</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[50.12029484601934, 76.86852328476343]</t>
+          <t>[56.10173259303599, 86.64636292655572]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.074784788419493e-12</v>
+        <v>3.343103571751271e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.074784788419493e-12</v>
+        <v>3.343103571751271e-12</v>
       </c>
       <c r="X17" t="n">
-        <v>4.554554554554578</v>
+        <v>5.669989989990025</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.732732732732747</v>
+        <v>0.09145145145145506</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.376376376376408</v>
+        <v>11.2485285285286</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001719177507078617</v>
+        <v>0.0001136107709726053</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001719177507078617</v>
+        <v>0.0001136107709726053</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>40.49632967105802</v>
+        <v>37.80399804125695</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[11.919686579681525, 69.07297276243452]</t>
+          <t>[18.154645904422324, 57.45335017809157]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.006500721056835079</v>
+        <v>0.0003433601614768467</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006500721056835079</v>
+        <v>0.0003433601614768467</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, 0.02515789912784605]</t>
+          <t>[-1.9874740310998495, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.0589003954378764</v>
+        <v>5.072614847878576e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0589003954378764</v>
+        <v>5.072614847878576e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>59.09531040611416</v>
+        <v>66.66008689653776</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[43.88772094988872, 74.3028998623396]</t>
+          <t>[55.48664084959478, 77.83353294348075]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>6.170184363440967e-10</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W18" t="n">
-        <v>6.170184363440967e-10</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X18" t="n">
-        <v>2.322822822822832</v>
+        <v>4.984104104104134</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.09109109109109337</v>
+        <v>2.74354354354356</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.736736736736758</v>
+        <v>7.224664664664708</v>
       </c>
     </row>
   </sheetData>
